--- a/JLCPCB/JLCSMT_DigitalSystemBoard_CPL1.xlsx
+++ b/JLCPCB/JLCSMT_DigitalSystemBoard_CPL1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\digitalSystemBoard\digitalSystemBoard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDCD5E-5980-420D-8CBF-32FF9C613F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="238">
   <si>
     <t>Designator</t>
   </si>
@@ -37,183 +31,330 @@
     <t>Rotation</t>
   </si>
   <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>86.0000mm</t>
+  </si>
+  <si>
+    <t>20.0000mm</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>Top</t>
+    <t>99.0000mm</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
+    <t>115.0000.mm</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
+    <t>128.0000mm</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>141.0000mm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>25.0000mm</t>
+  </si>
+  <si>
+    <t>12.0000mm</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>72.0000mm</t>
+  </si>
+  <si>
+    <t>52.0000mm</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>53.0000mm</t>
+  </si>
+  <si>
+    <t>67.0000mm</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>71.0000mm</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>59.0000mm</t>
+  </si>
+  <si>
+    <t>56.0000mm</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>75.0000mm</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>79.0000mm</t>
+  </si>
+  <si>
+    <t>24.0000mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>65.0000mm</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>58.0000mm</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>51.0000mm</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>44.0000mm</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>37.0000mm</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>30.0000mm</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>47.0000mm</t>
+  </si>
+  <si>
+    <t>FB2</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>16.0000mm</t>
+  </si>
+  <si>
+    <t>FB4</t>
+  </si>
+  <si>
+    <t>FB5</t>
+  </si>
+  <si>
+    <t>50.0000mm</t>
+  </si>
+  <si>
+    <t>FB6</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>162.4330mm</t>
+  </si>
+  <si>
+    <t>25.0190mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>152.4000mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>142.3670mm</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>132.4610mm</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>122.4280mm</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>112.3950mm</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>102.3620mm</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>92.3290mm</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>159.0000mm</t>
+  </si>
+  <si>
+    <t>29.0000mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>149.0000mm</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>139.0000mm</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>129.0000mm</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>119.0000mm</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>109.0000mm</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>89.0000mm</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>21.0000mm</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>77.0000mm</t>
+  </si>
+  <si>
+    <t>87.0000mm</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>FB2</t>
-  </si>
-  <si>
-    <t>FB3</t>
-  </si>
-  <si>
-    <t>FB4</t>
-  </si>
-  <si>
-    <t>FB5</t>
-  </si>
-  <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>LED3</t>
-  </si>
-  <si>
-    <t>LED4</t>
-  </si>
-  <si>
-    <t>LED5</t>
-  </si>
-  <si>
-    <t>LED6</t>
-  </si>
-  <si>
-    <t>LED7</t>
-  </si>
-  <si>
-    <t>Q0</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>R0</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
+    <t>163.0000mm</t>
+  </si>
+  <si>
     <t>R5</t>
   </si>
   <si>
+    <t>32.0000mm</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
+    <t>28.0000mm</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
+    <t>153.0000mm</t>
+  </si>
+  <si>
     <t>R8</t>
   </si>
   <si>
@@ -223,6 +364,9 @@
     <t>R10</t>
   </si>
   <si>
+    <t>143.0000mm</t>
+  </si>
+  <si>
     <t>R11</t>
   </si>
   <si>
@@ -232,6 +376,9 @@
     <t>R13</t>
   </si>
   <si>
+    <t>133.0000mm</t>
+  </si>
+  <si>
     <t>R14</t>
   </si>
   <si>
@@ -241,6 +388,9 @@
     <t>R16</t>
   </si>
   <si>
+    <t>123.0000mm</t>
+  </si>
+  <si>
     <t>R17</t>
   </si>
   <si>
@@ -250,42 +400,60 @@
     <t>R19</t>
   </si>
   <si>
+    <t>113.0000mm</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>103.0000mm</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>93.0000mm</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>33.0000mm</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>27.0000mm</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
     <t>R32</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
     <t>R33</t>
   </si>
   <si>
@@ -346,54 +514,108 @@
     <t>R52</t>
   </si>
   <si>
+    <t>92.0000mm</t>
+  </si>
+  <si>
     <t>R53</t>
   </si>
   <si>
+    <t>105.0000mm</t>
+  </si>
+  <si>
     <t>R54</t>
   </si>
   <si>
+    <t>121.0000mm</t>
+  </si>
+  <si>
     <t>R55</t>
   </si>
   <si>
+    <t>134.0000mm</t>
+  </si>
+  <si>
     <t>R56</t>
   </si>
   <si>
+    <t>147.0000mm</t>
+  </si>
+  <si>
     <t>R57</t>
   </si>
   <si>
     <t>R58</t>
   </si>
   <si>
+    <t>78.0000mm</t>
+  </si>
+  <si>
+    <t>73.0000mm</t>
+  </si>
+  <si>
     <t>R59</t>
   </si>
   <si>
     <t>R60</t>
   </si>
   <si>
+    <t>156.0000mm</t>
+  </si>
+  <si>
+    <t>76.5000mm</t>
+  </si>
+  <si>
     <t>R61</t>
   </si>
   <si>
+    <t>152.7500mm</t>
+  </si>
+  <si>
+    <t>77.5000mm</t>
+  </si>
+  <si>
     <t>R62</t>
   </si>
   <si>
+    <t>71.5000mm</t>
+  </si>
+  <si>
     <t>R63</t>
   </si>
   <si>
+    <t>72.5000mm</t>
+  </si>
+  <si>
     <t>R64</t>
   </si>
   <si>
+    <t>73.5000mm</t>
+  </si>
+  <si>
     <t>R65</t>
   </si>
   <si>
+    <t>75.5000mm</t>
+  </si>
+  <si>
     <t>R66</t>
   </si>
   <si>
+    <t>74.5000mm</t>
+  </si>
+  <si>
     <t>R67</t>
   </si>
   <si>
+    <t>117.0000mm</t>
+  </si>
+  <si>
     <t>R68</t>
   </si>
   <si>
+    <t>120.2500mm</t>
+  </si>
+  <si>
     <t>R69</t>
   </si>
   <si>
@@ -412,27 +634,39 @@
     <t>R74</t>
   </si>
   <si>
+    <t>132.0000mm</t>
+  </si>
+  <si>
+    <t>115.0000mm</t>
+  </si>
+  <si>
     <t>R75</t>
   </si>
   <si>
     <t>R76</t>
   </si>
   <si>
+    <t>111.0000mm</t>
+  </si>
+  <si>
     <t>R77</t>
   </si>
   <si>
     <t>R78</t>
   </si>
   <si>
+    <t>106.0000mm</t>
+  </si>
+  <si>
     <t>R79</t>
   </si>
   <si>
+    <t>R80</t>
+  </si>
+  <si>
     <t>R81</t>
   </si>
   <si>
-    <t>R80</t>
-  </si>
-  <si>
     <t>R82</t>
   </si>
   <si>
@@ -448,6 +682,9 @@
     <t>R86</t>
   </si>
   <si>
+    <t>152.0000mm</t>
+  </si>
+  <si>
     <t>R87</t>
   </si>
   <si>
@@ -457,305 +694,53 @@
     <t>R89</t>
   </si>
   <si>
+    <t>TD0</t>
+  </si>
+  <si>
+    <t>18.0000mm</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
+    <t>95.0000mm</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
+    <t>68.0000mm</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
     <t>U9</t>
   </si>
   <si>
+    <t>41.0000mm</t>
+  </si>
+  <si>
     <t>U10</t>
   </si>
   <si>
+    <t>154.0000mm</t>
+  </si>
+  <si>
     <t>U11</t>
-  </si>
-  <si>
-    <t>86.0000mm</t>
-  </si>
-  <si>
-    <t>99.0000mm</t>
-  </si>
-  <si>
-    <t>20.0000mm</t>
-  </si>
-  <si>
-    <t>115.0000.mm</t>
-  </si>
-  <si>
-    <t>128.0000mm</t>
-  </si>
-  <si>
-    <t>141.0000mm</t>
-  </si>
-  <si>
-    <t>25.0000mm</t>
-  </si>
-  <si>
-    <t>12.0000mm</t>
-  </si>
-  <si>
-    <t>72.0000mm</t>
-  </si>
-  <si>
-    <t>52.0000mm</t>
-  </si>
-  <si>
-    <t>62.0000mm</t>
-  </si>
-  <si>
-    <t>53.0000mm</t>
-  </si>
-  <si>
-    <t>73.0000mm</t>
-  </si>
-  <si>
-    <t>79.0000mm</t>
-  </si>
-  <si>
-    <t>67.0000mm</t>
-  </si>
-  <si>
-    <t>71.0000mm</t>
-  </si>
-  <si>
-    <t>59.0000mm</t>
-  </si>
-  <si>
-    <t>56.0000mm</t>
-  </si>
-  <si>
-    <t>75.0000mm</t>
-  </si>
-  <si>
-    <t>24.0000mm</t>
-  </si>
-  <si>
-    <t>65.0000mm</t>
-  </si>
-  <si>
-    <t>68.0000mm</t>
-  </si>
-  <si>
-    <t>58.0000mm</t>
-  </si>
-  <si>
-    <t>51.0000mm</t>
-  </si>
-  <si>
-    <t>44.0000mm</t>
-  </si>
-  <si>
-    <t>37.0000mm</t>
-  </si>
-  <si>
-    <t>30.0000mm</t>
-  </si>
-  <si>
-    <t>16.0000mm</t>
-  </si>
-  <si>
-    <t>47.0000mm</t>
-  </si>
-  <si>
-    <t>50.0000mm</t>
-  </si>
-  <si>
-    <t>152.0000mm</t>
-  </si>
-  <si>
-    <t>132.0000mm</t>
-  </si>
-  <si>
-    <t>92.0000mm</t>
-  </si>
-  <si>
-    <t>29.0000mm</t>
-  </si>
-  <si>
-    <t>21.0000mm</t>
-  </si>
-  <si>
-    <t>159.0000mm</t>
-  </si>
-  <si>
-    <t>149.0000mm</t>
-  </si>
-  <si>
-    <t>139.0000mm</t>
-  </si>
-  <si>
-    <t>129.0000mm</t>
-  </si>
-  <si>
-    <t>119.0000mm</t>
-  </si>
-  <si>
-    <t>109.0000mm</t>
-  </si>
-  <si>
-    <t>89.0000mm</t>
-  </si>
-  <si>
-    <t>77.0000mm</t>
-  </si>
-  <si>
-    <t>87.0000mm</t>
-  </si>
-  <si>
-    <t>163.0000mm</t>
-  </si>
-  <si>
-    <t>32.0000mm</t>
-  </si>
-  <si>
-    <t>28.0000mm</t>
-  </si>
-  <si>
-    <t>153.0000mm</t>
-  </si>
-  <si>
-    <t>143.0000mm</t>
-  </si>
-  <si>
-    <t>133.0000mm</t>
-  </si>
-  <si>
-    <t>123.0000mm</t>
-  </si>
-  <si>
-    <t>113.0000mm</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>103.0000mm</t>
-  </si>
-  <si>
-    <t>93.0000mm</t>
-  </si>
-  <si>
-    <t>33.0000mm</t>
-  </si>
-  <si>
-    <t>27.0000mm</t>
-  </si>
-  <si>
-    <t>105.0000mm</t>
-  </si>
-  <si>
-    <t>121.0000mm</t>
-  </si>
-  <si>
-    <t>134.0000mm</t>
-  </si>
-  <si>
-    <t>147.0000mm</t>
-  </si>
-  <si>
-    <t>78.0000mm</t>
-  </si>
-  <si>
-    <t>156.0000mm</t>
-  </si>
-  <si>
-    <t>76.5000mm</t>
-  </si>
-  <si>
-    <t>152.7500mm</t>
-  </si>
-  <si>
-    <t>77.5000mm</t>
-  </si>
-  <si>
-    <t>71.5000mm</t>
-  </si>
-  <si>
-    <t>72.5000mm</t>
-  </si>
-  <si>
-    <t>73.5000mm</t>
-  </si>
-  <si>
-    <t>75.5000mm</t>
-  </si>
-  <si>
-    <t>74.5000mm</t>
-  </si>
-  <si>
-    <t>117.0000mm</t>
-  </si>
-  <si>
-    <t>120.2500mm</t>
-  </si>
-  <si>
-    <t>115.0000mm</t>
-  </si>
-  <si>
-    <t>111.0000mm</t>
-  </si>
-  <si>
-    <t>106.0000mm</t>
-  </si>
-  <si>
-    <t>18.0000mm</t>
-  </si>
-  <si>
-    <t>95.0000mm</t>
-  </si>
-  <si>
-    <t>41.0000mm</t>
-  </si>
-  <si>
-    <t>154.0000mm</t>
-  </si>
-  <si>
-    <t>Y0</t>
-  </si>
-  <si>
-    <t>TD0</t>
-  </si>
-  <si>
-    <t>92.3290mm</t>
-  </si>
-  <si>
-    <t>25.0190mm</t>
-  </si>
-  <si>
-    <t>102.3620mm</t>
-  </si>
-  <si>
-    <t>142.3670mm</t>
-  </si>
-  <si>
-    <t>112.3950mm</t>
-  </si>
-  <si>
-    <t>132.4610mm</t>
-  </si>
-  <si>
-    <t>122.4280mm</t>
-  </si>
-  <si>
-    <t>152.4000mm</t>
-  </si>
-  <si>
-    <t>162.4330mm</t>
-  </si>
-  <si>
-    <t>FB6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,20 +749,164 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,8 +919,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -814,9 +1129,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,42 +1384,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1120,25 +1721,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A52:$XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="12.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1160,16 +1761,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>180</v>
@@ -1177,16 +1778,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>180</v>
@@ -1194,16 +1795,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
         <v>180</v>
@@ -1211,16 +1812,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1228,16 +1829,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8">
         <v>180</v>
@@ -1245,16 +1846,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8">
         <v>180</v>
@@ -1262,16 +1863,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8">
         <v>270</v>
@@ -1279,33 +1880,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="8">
         <v>180</v>
@@ -1313,33 +1914,33 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="8">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8">
         <v>180</v>
@@ -1347,50 +1948,50 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="8">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -1398,16 +1999,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -1415,16 +2016,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -1432,16 +2033,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -1449,16 +2050,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="8">
         <v>0</v>
@@ -1466,16 +2067,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1483,16 +2084,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -1500,16 +2101,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1517,33 +2118,33 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1551,33 +2152,33 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="8">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -1585,33 +2186,33 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -1619,16 +2220,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -1636,16 +2237,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1653,16 +2254,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -1670,186 +2271,186 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42" s="8">
         <v>90</v>
@@ -1857,50 +2458,52 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E43" s="8">
-        <v>90</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45" s="8">
         <v>270</v>
@@ -1909,34 +2512,34 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46" s="8">
         <v>270</v>
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47" s="8">
         <v>270</v>
@@ -1945,16 +2548,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48" s="8">
         <v>270</v>
@@ -1963,16 +2566,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" s="8">
         <v>270</v>
@@ -1981,257 +2584,255 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" s="8">
         <v>270</v>
       </c>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51" s="8">
-        <v>270</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E52" s="8">
-        <v>270</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E55" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
-        <v>62</v>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E61" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" s="9" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E62" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="4" t="s">
-        <v>66</v>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="4" t="s">
-        <v>67</v>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E64" s="8">
         <v>180</v>
@@ -2239,16 +2840,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E65" s="8">
         <v>180</v>
@@ -2256,16 +2857,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" s="8">
         <v>0</v>
@@ -2273,16 +2874,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67" s="8">
         <v>180</v>
@@ -2290,16 +2891,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="9" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E68" s="8">
         <v>180</v>
@@ -2307,16 +2908,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="9" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E69" s="8">
         <v>0</v>
@@ -2324,16 +2925,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="9" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E70" s="8">
         <v>180</v>
@@ -2341,16 +2942,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E71" s="8">
         <v>180</v>
@@ -2358,16 +2959,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="9" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72" s="8">
         <v>0</v>
@@ -2375,16 +2976,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="9" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73" s="8">
         <v>180</v>
@@ -2392,16 +2993,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="9" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E74" s="8">
         <v>180</v>
@@ -2409,16 +3010,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="9" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E75" s="8">
         <v>0</v>
@@ -2426,16 +3027,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="9" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E76" s="8">
         <v>180</v>
@@ -2443,16 +3044,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="9" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E77" s="8">
         <v>180</v>
@@ -2460,16 +3061,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="9" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E78" s="8">
         <v>0</v>
@@ -2477,16 +3078,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E79" s="8">
         <v>180</v>
@@ -2494,33 +3095,33 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="9" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E80" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="9" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E81" s="8">
         <v>0</v>
@@ -2528,16 +3129,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E82" s="8">
         <v>180</v>
@@ -2545,16 +3146,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="9" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -2562,16 +3163,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="9" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E84" s="8">
         <v>0</v>
@@ -2579,16 +3180,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E85" s="8">
         <v>180</v>
@@ -2596,16 +3197,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="9" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" s="8">
         <v>0</v>
@@ -2613,16 +3214,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="9" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E87" s="8">
         <v>0</v>
@@ -2630,16 +3231,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="9" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E88" s="8">
         <v>180</v>
@@ -2647,16 +3248,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89" s="8">
         <v>0</v>
@@ -2664,16 +3265,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="9" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E90" s="8">
         <v>0</v>
@@ -2681,16 +3282,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="9" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E91" s="8">
         <v>180</v>
@@ -2698,16 +3299,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="9" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" s="8">
         <v>0</v>
@@ -2715,16 +3316,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93" s="8">
         <v>0</v>
@@ -2732,16 +3333,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="9" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E94" s="8">
         <v>180</v>
@@ -2749,16 +3350,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95" s="8">
         <v>0</v>
@@ -2766,16 +3367,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -2783,16 +3384,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="9" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E97" s="8">
         <v>180</v>
@@ -2800,16 +3401,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="9" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E98" s="8">
         <v>0</v>
@@ -2817,16 +3418,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="9" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E99" s="8">
         <v>0</v>
@@ -2834,16 +3435,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="9" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100" s="8">
         <v>180</v>
@@ -2851,16 +3452,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="9" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E101" s="8">
         <v>0</v>
@@ -2868,16 +3469,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="9" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E102" s="8">
         <v>0</v>
@@ -2885,33 +3486,33 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E103" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="9" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E104" s="8">
         <v>0</v>
@@ -2919,16 +3520,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="9" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E105" s="8">
         <v>0</v>
@@ -2936,16 +3537,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="9" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E106" s="8">
         <v>0</v>
@@ -2953,16 +3554,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E107" s="8">
         <v>0</v>
@@ -2970,50 +3571,50 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="9" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E108" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="9" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E109" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E110" s="8">
         <v>0</v>
@@ -3021,50 +3622,50 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="9" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E111" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="9" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E112" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="9" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E113" s="8">
         <v>0</v>
@@ -3072,16 +3673,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="9" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E114" s="8">
         <v>0</v>
@@ -3089,16 +3690,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="9" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E115" s="8">
         <v>0</v>
@@ -3106,16 +3707,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E116" s="8">
         <v>0</v>
@@ -3123,67 +3724,67 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="9" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E117" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E118" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E119" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="9" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E120" s="8">
         <v>180</v>
@@ -3191,16 +3792,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E121" s="8">
         <v>180</v>
@@ -3208,16 +3809,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="9" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E122" s="8">
         <v>180</v>
@@ -3225,16 +3826,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="9" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E123" s="8">
         <v>180</v>
@@ -3242,16 +3843,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="9" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E124" s="8">
         <v>180</v>
@@ -3259,16 +3860,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="9" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E125" s="8">
         <v>180</v>
@@ -3276,16 +3877,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="9" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E126" s="8">
         <v>180</v>
@@ -3293,16 +3894,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="9" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E127" s="8">
         <v>180</v>
@@ -3310,67 +3911,67 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="9" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E128" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E129" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E130" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E131" s="8">
         <v>0</v>
@@ -3378,16 +3979,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E132" s="8">
         <v>0</v>
@@ -3395,16 +3996,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="9" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E133" s="8">
         <v>0</v>
@@ -3412,16 +4013,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="9" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E134" s="8">
         <v>0</v>
@@ -3429,16 +4030,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="9" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E135" s="8">
         <v>0</v>
@@ -3446,67 +4047,67 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="9" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E136" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="9" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E137" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="9" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E138" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E139" s="8">
         <v>180</v>
@@ -3514,53 +4115,53 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E140" s="8">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="9" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E141" s="8">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="9" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E142" s="8">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3568,13 +4169,13 @@
         <v>232</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E143" s="8">
         <v>270</v>
@@ -3582,33 +4183,33 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="9" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E144" s="8">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E145" s="8">
         <v>270</v>
@@ -3616,91 +4217,24 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E146" s="8">
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="8">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" s="8">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="8">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E150" s="8">
-        <v>180</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>